--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H2">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J2">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N2">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P2">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q2">
-        <v>113.4186772990982</v>
+        <v>6.025661570901555</v>
       </c>
       <c r="R2">
-        <v>113.4186772990982</v>
+        <v>54.23095413811399</v>
       </c>
       <c r="S2">
-        <v>0.2688993577305358</v>
+        <v>0.01264121347631857</v>
       </c>
       <c r="T2">
-        <v>0.2688993577305358</v>
+        <v>0.01264121347631856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H3">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J3">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P3">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q3">
-        <v>188.0750709163216</v>
+        <v>9.712292881804443</v>
       </c>
       <c r="R3">
-        <v>188.0750709163216</v>
+        <v>87.41063593623998</v>
       </c>
       <c r="S3">
-        <v>0.4458989205204383</v>
+        <v>0.02037538388420471</v>
       </c>
       <c r="T3">
-        <v>0.4458989205204383</v>
+        <v>0.02037538388420471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H4">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I4">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J4">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N4">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O4">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P4">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q4">
-        <v>28.45477371654094</v>
+        <v>1.555996116079333</v>
       </c>
       <c r="R4">
-        <v>28.45477371654094</v>
+        <v>14.003965044714</v>
       </c>
       <c r="S4">
-        <v>0.0674621725359023</v>
+        <v>0.003264318588131137</v>
       </c>
       <c r="T4">
-        <v>0.0674621725359023</v>
+        <v>0.003264318588131137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.84246748421526</v>
+        <v>0.3517556666666666</v>
       </c>
       <c r="H5">
-        <v>6.84246748421526</v>
+        <v>1.055267</v>
       </c>
       <c r="I5">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="J5">
-        <v>0.9159431246859535</v>
+        <v>0.04271818225758384</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24056889518625</v>
+        <v>8.723210333333332</v>
       </c>
       <c r="N5">
-        <v>8.24056889518625</v>
+        <v>26.169631</v>
       </c>
       <c r="O5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="P5">
-        <v>0.1459508459599087</v>
+        <v>0.1506914847198724</v>
       </c>
       <c r="Q5">
-        <v>56.38582471674759</v>
+        <v>3.068438666275222</v>
       </c>
       <c r="R5">
-        <v>56.38582471674759</v>
+        <v>27.615947996477</v>
       </c>
       <c r="S5">
-        <v>0.133682673899077</v>
+        <v>0.00643726630892942</v>
       </c>
       <c r="T5">
-        <v>0.133682673899077</v>
+        <v>0.006437266308929419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H6">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J6">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.5756983954606</v>
+        <v>17.13024733333333</v>
       </c>
       <c r="N6">
-        <v>16.5756983954606</v>
+        <v>51.390742</v>
       </c>
       <c r="O6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465044</v>
       </c>
       <c r="P6">
-        <v>0.2935764792412547</v>
+        <v>0.2959211466465043</v>
       </c>
       <c r="Q6">
-        <v>10.40852795230396</v>
+        <v>117.68608394855</v>
       </c>
       <c r="R6">
-        <v>10.40852795230396</v>
+        <v>1059.17475553695</v>
       </c>
       <c r="S6">
-        <v>0.02467712151071892</v>
+        <v>0.2468932071409017</v>
       </c>
       <c r="T6">
-        <v>0.02467712151071892</v>
+        <v>0.2468932071409016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H7">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J7">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4864398479332</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>27.4864398479332</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858779</v>
       </c>
       <c r="P7">
-        <v>0.4868194416256165</v>
+        <v>0.4769721651858778</v>
       </c>
       <c r="Q7">
-        <v>17.25980834357383</v>
+        <v>189.688999618</v>
       </c>
       <c r="R7">
-        <v>17.25980834357383</v>
+        <v>1707.200996562</v>
       </c>
       <c r="S7">
-        <v>0.04092052110517821</v>
+        <v>0.3979478618348088</v>
       </c>
       <c r="T7">
-        <v>0.04092052110517821</v>
+        <v>0.3979478618348087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.627939028810661</v>
+        <v>6.870075</v>
       </c>
       <c r="H8">
-        <v>0.627939028810661</v>
+        <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="J8">
-        <v>0.08405687531404654</v>
+        <v>0.8343209329201149</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.15855446623351</v>
+        <v>4.423514</v>
       </c>
       <c r="N8">
-        <v>4.15855446623351</v>
+        <v>13.270542</v>
       </c>
       <c r="O8">
-        <v>0.07365323317322005</v>
+        <v>0.07641520344774541</v>
       </c>
       <c r="P8">
-        <v>0.07365323317322005</v>
+        <v>0.0764152034477454</v>
       </c>
       <c r="Q8">
-        <v>2.611318652782907</v>
+        <v>30.38987294355</v>
       </c>
       <c r="R8">
-        <v>2.611318652782907</v>
+        <v>273.50885649195</v>
       </c>
       <c r="S8">
-        <v>0.006191060637317754</v>
+        <v>0.06375480382980334</v>
       </c>
       <c r="T8">
-        <v>0.006191060637317754</v>
+        <v>0.06375480382980332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.870075</v>
+      </c>
+      <c r="H9">
+        <v>20.610225</v>
+      </c>
+      <c r="I9">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="J9">
+        <v>0.8343209329201149</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N9">
+        <v>26.169631</v>
+      </c>
+      <c r="O9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P9">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q9">
+        <v>59.92910923077499</v>
+      </c>
+      <c r="R9">
+        <v>539.361983076975</v>
+      </c>
+      <c r="S9">
+        <v>0.1257250601146012</v>
+      </c>
+      <c r="T9">
+        <v>0.1257250601146012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.207314</v>
+      </c>
+      <c r="I10">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J10">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>17.13024733333333</v>
+      </c>
+      <c r="N10">
+        <v>51.390742</v>
+      </c>
+      <c r="O10">
+        <v>0.2959211466465044</v>
+      </c>
+      <c r="P10">
+        <v>0.2959211466465043</v>
+      </c>
+      <c r="Q10">
+        <v>12.60394492077645</v>
+      </c>
+      <c r="R10">
+        <v>113.435504286988</v>
+      </c>
+      <c r="S10">
+        <v>0.02644177017121415</v>
+      </c>
+      <c r="T10">
+        <v>0.02644177017121415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H11">
+        <v>2.207314</v>
+      </c>
+      <c r="I11">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J11">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N11">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.4769721651858779</v>
+      </c>
+      <c r="P11">
+        <v>0.4769721651858778</v>
+      </c>
+      <c r="Q11">
+        <v>20.31531361267556</v>
+      </c>
+      <c r="R11">
+        <v>182.83782251408</v>
+      </c>
+      <c r="S11">
+        <v>0.04261942248073659</v>
+      </c>
+      <c r="T11">
+        <v>0.04261942248073658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H12">
+        <v>2.207314</v>
+      </c>
+      <c r="I12">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J12">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.423514</v>
+      </c>
+      <c r="N12">
+        <v>13.270542</v>
+      </c>
+      <c r="O12">
+        <v>0.07641520344774541</v>
+      </c>
+      <c r="P12">
+        <v>0.0764152034477454</v>
+      </c>
+      <c r="Q12">
+        <v>3.254694793798667</v>
+      </c>
+      <c r="R12">
+        <v>29.292253144188</v>
+      </c>
+      <c r="S12">
+        <v>0.006828012360892641</v>
+      </c>
+      <c r="T12">
+        <v>0.006828012360892639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7357713333333334</v>
+      </c>
+      <c r="H13">
+        <v>2.207314</v>
+      </c>
+      <c r="I13">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="J13">
+        <v>0.08935410825100797</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N13">
+        <v>26.169631</v>
+      </c>
+      <c r="O13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P13">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q13">
+        <v>6.418288097903778</v>
+      </c>
+      <c r="R13">
+        <v>57.76459288113401</v>
+      </c>
+      <c r="S13">
+        <v>0.01346490323816459</v>
+      </c>
+      <c r="T13">
+        <v>0.01346490323816459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="H9">
-        <v>0.627939028810661</v>
-      </c>
-      <c r="I9">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="J9">
-        <v>0.08405687531404654</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="N9">
-        <v>8.24056889518625</v>
-      </c>
-      <c r="O9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="P9">
-        <v>0.1459508459599087</v>
-      </c>
-      <c r="Q9">
-        <v>5.174574828890596</v>
-      </c>
-      <c r="R9">
-        <v>5.174574828890596</v>
-      </c>
-      <c r="S9">
-        <v>0.01226817206083166</v>
-      </c>
-      <c r="T9">
-        <v>0.01226817206083166</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.830188</v>
+      </c>
+      <c r="I14">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J14">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.13024733333333</v>
+      </c>
+      <c r="N14">
+        <v>51.390742</v>
+      </c>
+      <c r="O14">
+        <v>0.2959211466465044</v>
+      </c>
+      <c r="P14">
+        <v>0.2959211466465043</v>
+      </c>
+      <c r="Q14">
+        <v>4.740441924388445</v>
+      </c>
+      <c r="R14">
+        <v>42.663977319496</v>
+      </c>
+      <c r="S14">
+        <v>0.009944955858070006</v>
+      </c>
+      <c r="T14">
+        <v>0.009944955858070004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.830188</v>
+      </c>
+      <c r="I15">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J15">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>27.61090666666666</v>
+      </c>
+      <c r="N15">
+        <v>82.83271999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4769721651858779</v>
+      </c>
+      <c r="P15">
+        <v>0.4769721651858778</v>
+      </c>
+      <c r="Q15">
+        <v>7.640747794595555</v>
+      </c>
+      <c r="R15">
+        <v>68.76673015135999</v>
+      </c>
+      <c r="S15">
+        <v>0.01602949698612782</v>
+      </c>
+      <c r="T15">
+        <v>0.01602949698612782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.830188</v>
+      </c>
+      <c r="I16">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J16">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.423514</v>
+      </c>
+      <c r="N16">
+        <v>13.270542</v>
+      </c>
+      <c r="O16">
+        <v>0.07641520344774541</v>
+      </c>
+      <c r="P16">
+        <v>0.0764152034477454</v>
+      </c>
+      <c r="Q16">
+        <v>1.224116080210667</v>
+      </c>
+      <c r="R16">
+        <v>11.017044721896</v>
+      </c>
+      <c r="S16">
+        <v>0.002568068668918305</v>
+      </c>
+      <c r="T16">
+        <v>0.002568068668918304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2767293333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.830188</v>
+      </c>
+      <c r="I17">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="J17">
+        <v>0.03360677657129334</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.723210333333332</v>
+      </c>
+      <c r="N17">
+        <v>26.169631</v>
+      </c>
+      <c r="O17">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="P17">
+        <v>0.1506914847198724</v>
+      </c>
+      <c r="Q17">
+        <v>2.413968180069777</v>
+      </c>
+      <c r="R17">
+        <v>21.725713620628</v>
+      </c>
+      <c r="S17">
+        <v>0.005064255058177218</v>
+      </c>
+      <c r="T17">
+        <v>0.005064255058177217</v>
       </c>
     </row>
   </sheetData>
